--- a/app/data/sample_data.xlsx
+++ b/app/data/sample_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="total_counts" sheetId="1" state="visible" r:id="rId3"/>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">samplesize</t>
   </si>
   <si>
-    <t xml:space="preserve">samplesize_lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplesize_upper</t>
+    <t xml:space="preserve">samplesize_lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samplesize_up</t>
   </si>
   <si>
     <t xml:space="preserve">damage_threshold_unit</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">damage_threshold</t>
   </si>
   <si>
-    <t xml:space="preserve">damage_threshold_lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damage_threshold_higher</t>
+    <t xml:space="preserve">damage_threshold_lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damage_threshold_up</t>
   </si>
   <si>
     <t xml:space="preserve">Lepidopteren</t>
@@ -543,10 +543,10 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -855,10 +855,10 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,7 +866,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="18.54"/>
@@ -1353,10 +1354,10 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1365,12 +1366,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="20.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="21.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="3" width="18.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,10 +1661,10 @@
         <v>43</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,10 +1690,10 @@
         <v>43</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,10 +1748,10 @@
         <v>43</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,10 +1777,10 @@
         <v>43</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,10 +1806,10 @@
         <v>43</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,7 +1835,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,10 +1884,10 @@
         <v>43</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
